--- a/app/src/main/assets/sanfanggongzuozhan.xlsx
+++ b/app/src/main/assets/sanfanggongzuozhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miku/project/Map/app/src/main/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奔雷手文泰来\Desktop\Map\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245D812-1F12-A840-8AE2-0BB65BF4E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C82A36-BA70-4A32-8974-25EE5E079C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -477,17 +477,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>39.983607999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -535,7 +535,7 @@
         <v>39.950637999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -552,7 +552,7 @@
         <v>39.909385999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>116.420013</v>
+        <v>116.33</v>
       </c>
       <c r="E5">
-        <v>39.951244000000003</v>
+        <v>39.99</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
